--- a/data/unit_management/unit_management_uuid.xlsx
+++ b/data/unit_management/unit_management_uuid.xlsx
@@ -1073,14 +1073,14 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>['e340a2ba432c4b16804a88c91c8b7f33']</t>
+          <t>['1111d00b64cf4ae1b447e21c1f22ae9b']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>['4f5610fb8c36436f8bbb2da0a4555614']</t>
+          <t>['9da81641467342e687862dfcf0f706f3']</t>
         </is>
       </c>
     </row>
